--- a/Факт отгрузок.xlsx
+++ b/Факт отгрузок.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -821,10 +825,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01.07.2019</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>43647</v>
       </c>
       <c r="B2" t="n">
         <v>9929622</v>
@@ -1056,10 +1058,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>01.08.2019</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>43678</v>
       </c>
       <c r="B3" t="n">
         <v>6712903</v>
@@ -1291,10 +1291,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>01.09.2019</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>43709</v>
       </c>
       <c r="B4" t="n">
         <v>7429549</v>
@@ -1526,10 +1524,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>01.10.2019</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>43739</v>
       </c>
       <c r="B5" t="n">
         <v>10534671</v>
@@ -1761,10 +1757,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>01.11.2019</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>43770</v>
       </c>
       <c r="B6" t="n">
         <v>8390317</v>
@@ -1996,10 +1990,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>01.12.2019</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>43800</v>
       </c>
       <c r="B7" t="n">
         <v>9456054</v>
@@ -2231,10 +2223,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>01.01.2020</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>43831</v>
       </c>
       <c r="B8" t="n">
         <v>5820575</v>
@@ -2466,10 +2456,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>01.02.2020</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>43862</v>
       </c>
       <c r="B9" t="n">
         <v>7992614</v>
@@ -2701,10 +2689,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>01.03.2020</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>43891</v>
       </c>
       <c r="B10" t="n">
         <v>8286214</v>
@@ -2936,10 +2922,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>01.04.2020</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>43922</v>
       </c>
       <c r="B11" t="n">
         <v>9010691</v>
@@ -3171,10 +3155,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>01.05.2020</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>43952</v>
       </c>
       <c r="B12" t="n">
         <v>9672769</v>
@@ -3406,10 +3388,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>01.06.2020</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>43983</v>
       </c>
       <c r="B13" t="n">
         <v>9008082</v>
@@ -3641,10 +3621,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>01.07.2020</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>44013</v>
       </c>
       <c r="B14" t="n">
         <v>6901116</v>
@@ -3876,10 +3854,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>01.08.2020</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>44044</v>
       </c>
       <c r="B15" t="n">
         <v>7283591</v>
@@ -4111,10 +4087,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>01.09.2020</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>44075</v>
       </c>
       <c r="B16" t="n">
         <v>8217266</v>
@@ -4346,10 +4320,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>01.10.2020</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>44105</v>
       </c>
       <c r="B17" t="n">
         <v>9552319</v>
@@ -4581,10 +4553,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>01.11.2020</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>44136</v>
       </c>
       <c r="B18" t="n">
         <v>9678205</v>
@@ -4816,10 +4786,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>01.12.2020</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>44166</v>
       </c>
       <c r="B19" t="n">
         <v>10822455</v>
@@ -5051,10 +5019,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>01.01.2021</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>44197</v>
       </c>
       <c r="B20" t="n">
         <v>5930057</v>
@@ -5286,10 +5252,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>01.02.2021</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>44228</v>
       </c>
       <c r="B21" t="n">
         <v>8908072</v>
@@ -5521,10 +5485,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>01.03.2021</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>44256</v>
       </c>
       <c r="B22" t="n">
         <v>12578721</v>
@@ -5756,10 +5718,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>01.04.2021</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>44287</v>
       </c>
       <c r="B23" t="n">
         <v>11275428</v>
@@ -5991,10 +5951,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>01.05.2021</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>44317</v>
       </c>
       <c r="B24" t="n">
         <v>11086901</v>
@@ -6226,10 +6184,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>01.06.2021</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>44348</v>
       </c>
       <c r="B25" t="n">
         <v>9914421</v>
@@ -6461,10 +6417,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>01.07.2021</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>44378</v>
       </c>
       <c r="B26" t="n">
         <v>10298673</v>
@@ -6696,10 +6650,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>01.08.2021</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>44409</v>
       </c>
       <c r="B27" t="n">
         <v>11645709</v>
@@ -6931,10 +6883,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>01.09.2021</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>44440</v>
       </c>
       <c r="B28" t="n">
         <v>11936772</v>
@@ -7166,10 +7116,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>01.10.2021</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>44470</v>
       </c>
       <c r="B29" t="n">
         <v>14142566</v>
@@ -7401,10 +7349,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>01.11.2021</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>44501</v>
       </c>
       <c r="B30" t="n">
         <v>13813013</v>
@@ -7636,10 +7582,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>01.12.2021</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>44531</v>
       </c>
       <c r="B31" t="n">
         <v>15355732</v>
@@ -7871,10 +7815,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>01.01.2022</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>44562</v>
       </c>
       <c r="B32" t="n">
         <v>12211186</v>
@@ -8106,10 +8048,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>01.02.2022</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>44593</v>
       </c>
       <c r="B33" t="n">
         <v>15591679</v>
@@ -8341,10 +8281,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>01.03.2022</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>44621</v>
       </c>
       <c r="B34" t="n">
         <v>17768402</v>
@@ -8576,10 +8514,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>01.04.2022</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>44652</v>
       </c>
       <c r="B35" t="n">
         <v>15390795</v>
@@ -8811,10 +8747,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>01.05.2022</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>44682</v>
       </c>
       <c r="B36" t="n">
         <v>14293005</v>
@@ -9046,10 +8980,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>01.06.2022</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>44713</v>
       </c>
       <c r="B37" t="n">
         <v>15558958</v>
@@ -9281,10 +9213,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>01.07.2022</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>44743</v>
       </c>
       <c r="B38" t="n">
         <v>18947909</v>
@@ -9516,10 +9446,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>01.08.2022</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>44774</v>
       </c>
       <c r="B39" t="n">
         <v>21935697</v>
@@ -9751,10 +9679,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>01.09.2022</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>44805</v>
       </c>
       <c r="B40" t="n">
         <v>19767676</v>
@@ -9986,10 +9912,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>01.10.2022</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B41" t="n">
         <v>15724677</v>
@@ -10221,10 +10145,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>01.11.2022</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>44866</v>
       </c>
       <c r="B42" t="n">
         <v>20826992</v>
@@ -10456,10 +10378,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>01.12.2022</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>44896</v>
       </c>
       <c r="B43" t="n">
         <v>20707352</v>
@@ -10691,10 +10611,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>01.01.2023</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>44927</v>
       </c>
       <c r="B44" t="n">
         <v>16760870</v>
@@ -10926,10 +10844,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>01.02.2023</t>
-        </is>
+      <c r="A45" s="2" t="n">
+        <v>44958</v>
       </c>
       <c r="B45" t="n">
         <v>22548392</v>
@@ -11161,10 +11077,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>01.03.2023</t>
-        </is>
+      <c r="A46" s="2" t="n">
+        <v>44986</v>
       </c>
       <c r="B46" t="n">
         <v>21518669</v>
@@ -11396,10 +11310,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>01.04.2023</t>
-        </is>
+      <c r="A47" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B47" t="n">
         <v>20133633</v>
@@ -11631,10 +11543,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>01.05.2023</t>
-        </is>
+      <c r="A48" s="2" t="n">
+        <v>45047</v>
       </c>
       <c r="B48" t="n">
         <v>16417723</v>
@@ -11866,10 +11776,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>01.06.2023</t>
-        </is>
+      <c r="A49" s="2" t="n">
+        <v>45078</v>
       </c>
       <c r="B49" t="n">
         <v>19878288</v>
